--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19611CE9-9289-43E7-A419-894905F75E68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B781FD5-D8D0-4878-830C-D89DAE9BF1E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>de</t>
   </si>
@@ -169,13 +169,6 @@
     <t>In the following you will hear some short piano pieces. Press the space bar when you perceive a section. After listening, we will ask you how difficult you found the task and whether you liked the piece.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wann immer Sie einen Abschluss oder Neubeginn hören, klicken Sie die Leertaste. Es gibt keine richtigen und falschen Antworten. Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.
-</t>
-  </si>
-  <si>
-    <t>Whenever you hear a conclusion or new beginning, click the space bar. There are no right and wrong answers. Just answer according to your personal, first impression.</t>
-  </si>
-  <si>
     <t>THANK_YOU</t>
   </si>
   <si>
@@ -210,6 +203,24 @@
   </si>
   <si>
     <t>Welcome! \\We are happy that you take part in our study</t>
+  </si>
+  <si>
+    <t>CONTINUE_MAIN_TEST</t>
+  </si>
+  <si>
+    <t>Weiter zum Experiment.</t>
+  </si>
+  <si>
+    <t>Conitnue to the main experiment.</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>Wann immer Sie einen Abschluss oder Neubeginn hören, drücken Sie die Leertaste. Es gibt keine richtigen und falschen Antworten. Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
+  </si>
+  <si>
+    <t>Whenever you hear a conclusion or new beginning, press the space bar. There are no right and wrong answers. Just answer according to your personal, first impression.</t>
   </si>
 </sst>
 </file>
@@ -567,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,10 +695,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -702,6 +713,9 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>45</v>
       </c>
@@ -722,13 +736,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,15 +767,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -788,24 +802,35 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>53</v>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B781FD5-D8D0-4878-830C-D89DAE9BF1E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CFE4E-5098-4998-A819-2D0C9E546EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>de</t>
   </si>
@@ -141,16 +141,7 @@
     <t>LIKING_PROMPT</t>
   </si>
   <si>
-    <t>Das Stück hat mir gefallen</t>
-  </si>
-  <si>
-    <t>I liked the piece</t>
-  </si>
-  <si>
     <t>DIFFICULTY_PROMPT</t>
-  </si>
-  <si>
-    <t>Die Aufgabe war schwierig</t>
   </si>
   <si>
     <t>The task was difficult.</t>
@@ -208,12 +199,6 @@
     <t>CONTINUE_MAIN_TEST</t>
   </si>
   <si>
-    <t>Weiter zum Experiment.</t>
-  </si>
-  <si>
-    <t>Conitnue to the main experiment.</t>
-  </si>
-  <si>
     <t>INSTRUCTIONS</t>
   </si>
   <si>
@@ -221,16 +206,92 @@
   </si>
   <si>
     <t>Whenever you hear a conclusion or new beginning, press the space bar. There are no right and wrong answers. Just answer according to your personal, first impression.</t>
+  </si>
+  <si>
+    <t>Completely disagree</t>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>Completely agree</t>
+  </si>
+  <si>
+    <t>LIKERT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trifft gar nicht zu </t>
+  </si>
+  <si>
+    <t>Trifft nicht zu</t>
+  </si>
+  <si>
+    <t>Trifft eher nicht zu</t>
+  </si>
+  <si>
+    <t>Trifft eher zu</t>
+  </si>
+  <si>
+    <t>Trifft zu</t>
+  </si>
+  <si>
+    <t>Triff sehr zu</t>
+  </si>
+  <si>
+    <t>LIKERT2</t>
+  </si>
+  <si>
+    <t>LIKERT3</t>
+  </si>
+  <si>
+    <t>LIKERT4</t>
+  </si>
+  <si>
+    <t>LIKERT5</t>
+  </si>
+  <si>
+    <t>LIKERT6</t>
+  </si>
+  <si>
+    <t>Beginne mit dem Experiment.</t>
+  </si>
+  <si>
+    <t>Start to the experiment.</t>
+  </si>
+  <si>
+    <t>Das Stück hat mir gefallen.</t>
+  </si>
+  <si>
+    <t>Die Aufgabe war schwierig.</t>
+  </si>
+  <si>
+    <t>I liked the piece.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,13 +317,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,10 +762,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -706,21 +773,21 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -736,13 +803,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,71 +834,161 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="B22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{942CFE4E-5098-4998-A819-2D0C9E546EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DC191-733F-4539-A18B-E1EEF161821F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>de</t>
   </si>
@@ -147,141 +147,198 @@
     <t>The task was difficult.</t>
   </si>
   <si>
-    <t xml:space="preserve">In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in unterschiedliche Abschnitte gliedern. Wenn etwas Neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Sie entscheiden auch, ob der Abschnitt eher kurz oder eher lang ist. Versuchen Sie intuitiv, die Musik in sinnvolle Teile zu gliedern. Es gibt keine richtigen und falschen Antworten
+    <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into different sections. When something new begins or something ends, this marks such a section. You alone decide what counts as a section and what does not. You also decide whether the section is rather short or rather long. Try intuitively to divide the music into meaningful parts. There are no right and wrong answers</t>
+  </si>
+  <si>
+    <t>THANK_YOU</t>
+  </si>
+  <si>
+    <t>Vielen Dank für Ihre Teilnahme!</t>
+  </si>
+  <si>
+    <t>CLOSE_BROWSER</t>
+  </si>
+  <si>
+    <t>Sie können den Browsertab jetzt schließen.</t>
+  </si>
+  <si>
+    <t>You can close the browser tab now.</t>
+  </si>
+  <si>
+    <t>PROMPT</t>
+  </si>
+  <si>
+    <t>EXAMPLE_HEADER</t>
+  </si>
+  <si>
+    <t>Beispiel {{example_no}} von {{num_example}}</t>
+  </si>
+  <si>
+    <t>Example {{example_no}} of {{num_example}}</t>
+  </si>
+  <si>
+    <t>Thank you for participating!</t>
+  </si>
+  <si>
+    <t>Willkommen! \\Wir freuen uns, dass Sie an unserer Studie teilnehmen.</t>
+  </si>
+  <si>
+    <t>Welcome! \\We are happy that you take part in our study</t>
+  </si>
+  <si>
+    <t>CONTINUE_MAIN_TEST</t>
+  </si>
+  <si>
+    <t>INSTRUCTIONS</t>
+  </si>
+  <si>
+    <t>Wann immer Sie einen Abschluss oder Neubeginn hören, drücken Sie die Leertaste. Es gibt keine richtigen und falschen Antworten. Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
+  </si>
+  <si>
+    <t>Whenever you hear a conclusion or new beginning, press the space bar. There are no right and wrong answers. Just answer according to your personal, first impression.</t>
+  </si>
+  <si>
+    <t>Completely disagree</t>
+  </si>
+  <si>
+    <t>Strongly disagree</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Strongly agree</t>
+  </si>
+  <si>
+    <t>Completely agree</t>
+  </si>
+  <si>
+    <t>LIKERT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trifft gar nicht zu </t>
+  </si>
+  <si>
+    <t>Trifft nicht zu</t>
+  </si>
+  <si>
+    <t>Trifft eher nicht zu</t>
+  </si>
+  <si>
+    <t>Trifft eher zu</t>
+  </si>
+  <si>
+    <t>Trifft zu</t>
+  </si>
+  <si>
+    <t>Triff sehr zu</t>
+  </si>
+  <si>
+    <t>LIKERT2</t>
+  </si>
+  <si>
+    <t>LIKERT3</t>
+  </si>
+  <si>
+    <t>LIKERT4</t>
+  </si>
+  <si>
+    <t>LIKERT5</t>
+  </si>
+  <si>
+    <t>LIKERT6</t>
+  </si>
+  <si>
+    <t>Beginne mit dem Experiment.</t>
+  </si>
+  <si>
+    <t>Start to the experiment.</t>
+  </si>
+  <si>
+    <t>Das Stück hat mir gefallen.</t>
+  </si>
+  <si>
+    <t>Die Aufgabe war schwierig.</t>
+  </si>
+  <si>
+    <t>I liked the piece.</t>
+  </si>
+  <si>
+    <t>NUM_LIKERT1</t>
+  </si>
+  <si>
+    <t>NUM_LIKERT2</t>
+  </si>
+  <si>
+    <t>NUM_LIKERT3</t>
+  </si>
+  <si>
+    <t>NUM_LIKERT4</t>
+  </si>
+  <si>
+    <t>NUM_LIKERT5</t>
+  </si>
+  <si>
+    <t>6 Triff sehr zu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Trifft gar nicht zu </t>
+  </si>
+  <si>
+    <t>6 Completely agree</t>
+  </si>
+  <si>
+    <t>1 Completely disagree</t>
+  </si>
+  <si>
+    <t>In the following you will hear  {{stimulus_description}}. Press the space bar when you perceive a section. After listening, we will ask you how difficult you found the task and whether you liked the piece.</t>
+  </si>
+  <si>
+    <t>Im folgenden hören Sie  {{stimulus_description}}, Drücken Sie die Leertaste, wenn Sie einen Abschnitt wahrnehmen. Nach dem Hören fragen wir Sie, wie schwer Ihnen die Aufgabe fiel und ob Ihnen das Stück gefallen hat.</t>
+  </si>
+  <si>
+    <t>NUM_LIKERT6</t>
+  </si>
+  <si>
+    <t>PART1_STIMULUS_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>einige kurze Klavierstücke</t>
+  </si>
+  <si>
+    <t>some short piano pieces</t>
+  </si>
+  <si>
+    <t>PART2_STIMULUS_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>ein Musikstück</t>
+  </si>
+  <si>
+    <t>a piece of music</t>
+  </si>
+  <si>
+    <t>CREDITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in unterschiedliche Abschnitte gliedern. Wenn etwas Neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Sie entscheiden auch, ob der Abschnitt eher kurz oder eher lang ist. Versuchen Sie intuitiv, die Musik in sinnvolle Teile zu gliedern. Es gibt keine richtigen und falschen Antworten.
 </t>
   </si>
   <si>
-    <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into different sections. When something new begins or something ends, this marks such a section. You alone decide what counts as a section and what does not. You also decide whether the section is rather short or rather long. Try intuitively to divide the music into meaningful parts. There are no right and wrong answers</t>
-  </si>
-  <si>
-    <t>Im folgenden hören Sie einige kurze Klavierstücke. Drücken Sie die Leertaste, wenn Sie einen Abschnitt wahrnehmen. Nach dem Hören fragen wir Sie, wie schwer Ihnen die Aufgabe fiel und ob Ihnen das Stück gefallen hat.</t>
-  </si>
-  <si>
-    <t>In the following you will hear some short piano pieces. Press the space bar when you perceive a section. After listening, we will ask you how difficult you found the task and whether you liked the piece.</t>
-  </si>
-  <si>
-    <t>THANK_YOU</t>
-  </si>
-  <si>
-    <t>Vielen Dank für Ihre Teilnahme!</t>
-  </si>
-  <si>
-    <t>CLOSE_BROWSER</t>
-  </si>
-  <si>
-    <t>Sie können den Browsertab jetzt schließen.</t>
-  </si>
-  <si>
-    <t>You can close the browser tab now.</t>
-  </si>
-  <si>
-    <t>PROMPT</t>
-  </si>
-  <si>
-    <t>EXAMPLE_HEADER</t>
-  </si>
-  <si>
-    <t>Beispiel {{example_no}} von {{num_example}}</t>
-  </si>
-  <si>
-    <t>Example {{example_no}} of {{num_example}}</t>
-  </si>
-  <si>
-    <t>Thank you for participating!</t>
-  </si>
-  <si>
-    <t>Willkommen! \\Wir freuen uns, dass Sie an unserer Studie teilnehmen.</t>
-  </si>
-  <si>
-    <t>Welcome! \\We are happy that you take part in our study</t>
-  </si>
-  <si>
-    <t>CONTINUE_MAIN_TEST</t>
-  </si>
-  <si>
-    <t>INSTRUCTIONS</t>
-  </si>
-  <si>
-    <t>Wann immer Sie einen Abschluss oder Neubeginn hören, drücken Sie die Leertaste. Es gibt keine richtigen und falschen Antworten. Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
-  </si>
-  <si>
-    <t>Whenever you hear a conclusion or new beginning, press the space bar. There are no right and wrong answers. Just answer according to your personal, first impression.</t>
-  </si>
-  <si>
-    <t>Completely disagree</t>
-  </si>
-  <si>
-    <t>Strongly disagree</t>
-  </si>
-  <si>
-    <t>Disagree</t>
-  </si>
-  <si>
-    <t>Agree</t>
-  </si>
-  <si>
-    <t>Strongly agree</t>
-  </si>
-  <si>
-    <t>Completely agree</t>
-  </si>
-  <si>
-    <t>LIKERT1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trifft gar nicht zu </t>
-  </si>
-  <si>
-    <t>Trifft nicht zu</t>
-  </si>
-  <si>
-    <t>Trifft eher nicht zu</t>
-  </si>
-  <si>
-    <t>Trifft eher zu</t>
-  </si>
-  <si>
-    <t>Trifft zu</t>
-  </si>
-  <si>
-    <t>Triff sehr zu</t>
-  </si>
-  <si>
-    <t>LIKERT2</t>
-  </si>
-  <si>
-    <t>LIKERT3</t>
-  </si>
-  <si>
-    <t>LIKERT4</t>
-  </si>
-  <si>
-    <t>LIKERT5</t>
-  </si>
-  <si>
-    <t>LIKERT6</t>
-  </si>
-  <si>
-    <t>Beginne mit dem Experiment.</t>
-  </si>
-  <si>
-    <t>Start to the experiment.</t>
-  </si>
-  <si>
-    <t>Das Stück hat mir gefallen.</t>
-  </si>
-  <si>
-    <t>Die Aufgabe war schwierig.</t>
-  </si>
-  <si>
-    <t>I liked the piece.</t>
+    <t>John Knowles Paine: Symphonie Nr. 1 in c-Moll, Op. 23: Allegro con brio. Aus der Aufnahme New World Records #80374-2. &lt;br/&gt; &amp;copy; 1989 Anthology of Recorded Music, Inc. Gebrauch mit freundlicher Genehmigung.</t>
+  </si>
+  <si>
+    <t>John Knowles Paine: Symphony No. 1 in C minor, Op. 23: Allegro con brio. From the sound recording New World Records #80374-2.  &lt;br/&gt; &amp;copy; 1989 Anthology of Recorded Music, Inc. Used by permission.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +352,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -317,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -331,6 +394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -645,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,10 +826,10 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="195" x14ac:dyDescent="0.25">
@@ -773,21 +837,21 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,13 +867,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,13 +900,13 @@
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,10 +914,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,7 +925,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -869,46 +933,46 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -917,13 +981,13 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -932,13 +996,13 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -947,13 +1011,13 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -962,13 +1026,13 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -977,18 +1041,117 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="3">
+        <v>5</v>
+      </c>
+      <c r="C33" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410DC191-733F-4539-A18B-E1EEF161821F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C257BD0-3412-4E68-B2B5-E2FC2842182F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -252,12 +252,6 @@
     <t>LIKERT6</t>
   </si>
   <si>
-    <t>Beginne mit dem Experiment.</t>
-  </si>
-  <si>
-    <t>Start to the experiment.</t>
-  </si>
-  <si>
     <t>Das Stück hat mir gefallen.</t>
   </si>
   <si>
@@ -282,16 +276,7 @@
     <t>NUM_LIKERT5</t>
   </si>
   <si>
-    <t>6 Triff sehr zu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 Trifft gar nicht zu </t>
-  </si>
-  <si>
     <t>6 Completely agree</t>
-  </si>
-  <si>
-    <t>1 Completely disagree</t>
   </si>
   <si>
     <t>In the following you will hear  {{stimulus_description}}. Press the space bar when you perceive a section. After listening, we will ask you how difficult you found the task and whether you liked the piece.</t>
@@ -328,10 +313,25 @@
 </t>
   </si>
   <si>
-    <t>John Knowles Paine: Symphonie Nr. 1 in c-Moll, Op. 23: Allegro con brio. Aus der Aufnahme New World Records #80374-2. &lt;br/&gt; &amp;copy; 1989 Anthology of Recorded Music, Inc. Gebrauch mit freundlicher Genehmigung.</t>
-  </si>
-  <si>
-    <t>John Knowles Paine: Symphony No. 1 in C minor, Op. 23: Allegro con brio. From the sound recording New World Records #80374-2.  &lt;br/&gt; &amp;copy; 1989 Anthology of Recorded Music, Inc. Used by permission.</t>
+    <t>John Knowles Paine: Symphony No. 1 in C minor, Op. 23: Allegro con brio. From the sound recording New World Records #80374-2.  &lt;br/&gt; &amp;copy;1989 Anthology of Recorded Music, Inc. Used by permission.</t>
+  </si>
+  <si>
+    <t>John Knowles Paine: Symphonie Nr. 1 in c-Moll, Op. 23: Allegro con brio. Aus der Aufnahme New World Records #80374-2. &lt;br/&gt; &amp;copy;1989 Anthology of Recorded Music, Inc. Gebrauch mit freundlicher Genehmigung.</t>
+  </si>
+  <si>
+    <t>Beginne mit dem Experiment. &lt;br&gt; Viel Vergnügen!</t>
+  </si>
+  <si>
+    <t>Begin the experiment. &lt;br&gt; Have fun!</t>
+  </si>
+  <si>
+    <t>Trifft gar nicht zu 1</t>
+  </si>
+  <si>
+    <t>6 Trifft sehr zu</t>
+  </si>
+  <si>
+    <t>Completely disagree 1</t>
   </si>
 </sst>
 </file>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,7 +837,7 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>40</v>
@@ -848,10 +848,10 @@
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,10 +914,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -958,10 +958,10 @@
         <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1056,18 +1056,18 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B33" s="3">
         <v>5</v>
@@ -1111,46 +1111,46 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C257BD0-3412-4E68-B2B5-E2FC2842182F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B262608-5685-4C6D-AA6D-06A7853B68F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>de</t>
   </si>
@@ -332,6 +332,24 @@
   </si>
   <si>
     <t>Completely disagree 1</t>
+  </si>
+  <si>
+    <t>FINISHED</t>
+  </si>
+  <si>
+    <t>Sie haben die Segmentierungsaufgabe beendet.</t>
+  </si>
+  <si>
+    <t>FINISHED_CONT</t>
+  </si>
+  <si>
+    <t>Sie haben die Segmentierungsaufgabe beendet. &lt;br&gt; Jetzt folgen noch ein paar weitere Fragen.</t>
+  </si>
+  <si>
+    <t>You finished the segmentation task.</t>
+  </si>
+  <si>
+    <t>You finished the segmentation task. &lt;br&gt;  Now on to a few more questions.</t>
   </si>
 </sst>
 </file>
@@ -709,10 +727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,6 +1171,28 @@
         <v>95</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B262608-5685-4C6D-AA6D-06A7853B68F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37799880-3FB2-45B2-A15D-44560E3386FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -147,9 +147,6 @@
     <t>The task was difficult.</t>
   </si>
   <si>
-    <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into different sections. When something new begins or something ends, this marks such a section. You alone decide what counts as a section and what does not. You also decide whether the section is rather short or rather long. Try intuitively to divide the music into meaningful parts. There are no right and wrong answers</t>
-  </si>
-  <si>
     <t>THANK_YOU</t>
   </si>
   <si>
@@ -309,10 +306,6 @@
     <t>CREDITS</t>
   </si>
   <si>
-    <t xml:space="preserve">In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in unterschiedliche Abschnitte gliedern. Wenn etwas Neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Sie entscheiden auch, ob der Abschnitt eher kurz oder eher lang ist. Versuchen Sie intuitiv, die Musik in sinnvolle Teile zu gliedern. Es gibt keine richtigen und falschen Antworten.
-</t>
-  </si>
-  <si>
     <t>John Knowles Paine: Symphony No. 1 in C minor, Op. 23: Allegro con brio. From the sound recording New World Records #80374-2.  &lt;br/&gt; &amp;copy;1989 Anthology of Recorded Music, Inc. Used by permission.</t>
   </si>
   <si>
@@ -350,6 +343,12 @@
   </si>
   <si>
     <t>You finished the segmentation task. &lt;br&gt;  Now on to a few more questions.</t>
+  </si>
+  <si>
+    <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into different sections. When something new begins or something ends, this marks such a section. You alone decide what counts as a section and what does not. You also decide whether the section is rather short or rather long. Try intuitively to divide the music into meaningful parts. There are no right and wrong answers.</t>
+  </si>
+  <si>
+    <t>In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in unterschiedliche Abschnitte gliedern. Wenn etwas Neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Sie entscheiden auch, ob der Abschnitt eher kurz oder eher lang ist. Versuchen Sie intuitiv, die Musik in sinnvolle Teile zu gliedern. Es gibt keine richtigen und falschen Antworten.</t>
   </si>
 </sst>
 </file>
@@ -729,14 +728,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" style="2" customWidth="1"/>
     <col min="3" max="3" width="65.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -844,32 +843,32 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,13 +884,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,13 +917,13 @@
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -932,10 +931,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,7 +942,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -951,46 +950,46 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -999,13 +998,13 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1014,13 +1013,13 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1029,13 +1028,13 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1044,13 +1043,13 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1059,13 +1058,13 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1074,18 +1073,18 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -1096,7 +1095,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -1107,7 +1106,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
@@ -1118,7 +1117,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B33" s="3">
         <v>5</v>
@@ -1129,68 +1128,68 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37799880-3FB2-45B2-A15D-44560E3386FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8D7C7D-241E-42A0-821B-4496260CDAE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
   <si>
     <t>de</t>
   </si>
@@ -303,9 +303,6 @@
     <t>a piece of music</t>
   </si>
   <si>
-    <t>CREDITS</t>
-  </si>
-  <si>
     <t>John Knowles Paine: Symphony No. 1 in C minor, Op. 23: Allegro con brio. From the sound recording New World Records #80374-2.  &lt;br/&gt; &amp;copy;1989 Anthology of Recorded Music, Inc. Used by permission.</t>
   </si>
   <si>
@@ -349,6 +346,33 @@
   </si>
   <si>
     <t>In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in unterschiedliche Abschnitte gliedern. Wenn etwas Neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Sie entscheiden auch, ob der Abschnitt eher kurz oder eher lang ist. Versuchen Sie intuitiv, die Musik in sinnvolle Teile zu gliedern. Es gibt keine richtigen und falschen Antworten.</t>
+  </si>
+  <si>
+    <t>CREDITS_HEADER_PART1</t>
+  </si>
+  <si>
+    <t>Sie hörten einige der folgende Choräle von Johann Sebastian Bach (original/manipuliert)</t>
+  </si>
+  <si>
+    <t>CREDITS_HEADER_PART2</t>
+  </si>
+  <si>
+    <t>Copyright Notice</t>
+  </si>
+  <si>
+    <t>CREDITS_PART2</t>
+  </si>
+  <si>
+    <t>CREDITS_PART1</t>
+  </si>
+  <si>
+    <t>BWV153/1, BWV 3/6, BWV267, BWV 6/6, BWV 248, BWV 86/6, BWV 308, BWV 20/7, BWV 245/5, BWV 110/7</t>
+  </si>
+  <si>
+    <t>Urheberechtsrhinweis</t>
+  </si>
+  <si>
+    <t>You listened to some of the following chorals by J.S. Bach (original or manipulated).</t>
   </si>
 </sst>
 </file>
@@ -397,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -412,6 +436,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -726,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,10 +879,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
@@ -975,10 +1000,10 @@
         <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1076,10 +1101,10 @@
         <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1131,7 +1156,7 @@
         <v>85</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>82</v>
@@ -1159,23 +1184,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>104</v>
@@ -1183,13 +1208,46 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8D7C7D-241E-42A0-821B-4496260CDAE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5FD6F1-FCC9-4CD9-AC41-52009F4254D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -366,13 +366,13 @@
     <t>CREDITS_PART1</t>
   </si>
   <si>
-    <t>BWV153/1, BWV 3/6, BWV267, BWV 6/6, BWV 248, BWV 86/6, BWV 308, BWV 20/7, BWV 245/5, BWV 110/7</t>
-  </si>
-  <si>
     <t>Urheberechtsrhinweis</t>
   </si>
   <si>
     <t>You listened to some of the following chorals by J.S. Bach (original or manipulated).</t>
+  </si>
+  <si>
+    <t>BWV153/1: Ach Gott vom Himmel sieh' darein &lt;br/&gt;BWV 3/6: Ach Gott, wie manches Herzeleid &lt;br/&gt;BWV267: An Wasserflüssen Babylon &lt;br/&gt;BWV 6/6: Erhalt uns Herr, bei deinem Wort &lt;br/&gt;BWV 248: Ermuntre dich, mein schwacher Geist &lt;br/&gt;BWV 86/6: Es ist das Heil uns kommen her &lt;br/&gt;BWV 308: Es spricht der Unweisen Mund wohl &lt;br/&gt;BWV 20/7: O Ewigkeit, du Donnerwort &lt;br/&gt;BWV 245/5: Vater unser im Himmelreich &lt;br/&gt;BWV 110/7: Wir Christenleut‘</t>
   </si>
 </sst>
 </file>
@@ -754,7 +754,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1214,7 @@
         <v>108</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1222,7 +1222,7 @@
         <v>109</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>110</v>
@@ -1233,10 +1233,10 @@
         <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5FD6F1-FCC9-4CD9-AC41-52009F4254D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25960FA4-FBD7-4C1E-BFF3-6FCF05C94A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -189,12 +189,6 @@
     <t>INSTRUCTIONS</t>
   </si>
   <si>
-    <t>Wann immer Sie einen Abschluss oder Neubeginn hören, drücken Sie die Leertaste. Es gibt keine richtigen und falschen Antworten. Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
-  </si>
-  <si>
-    <t>Whenever you hear a conclusion or new beginning, press the space bar. There are no right and wrong answers. Just answer according to your personal, first impression.</t>
-  </si>
-  <si>
     <t>Completely disagree</t>
   </si>
   <si>
@@ -315,15 +309,9 @@
     <t>Begin the experiment. &lt;br&gt; Have fun!</t>
   </si>
   <si>
-    <t>Trifft gar nicht zu 1</t>
-  </si>
-  <si>
     <t>6 Trifft sehr zu</t>
   </si>
   <si>
-    <t>Completely disagree 1</t>
-  </si>
-  <si>
     <t>FINISHED</t>
   </si>
   <si>
@@ -373,6 +361,18 @@
   </si>
   <si>
     <t>BWV153/1: Ach Gott vom Himmel sieh' darein &lt;br/&gt;BWV 3/6: Ach Gott, wie manches Herzeleid &lt;br/&gt;BWV267: An Wasserflüssen Babylon &lt;br/&gt;BWV 6/6: Erhalt uns Herr, bei deinem Wort &lt;br/&gt;BWV 248: Ermuntre dich, mein schwacher Geist &lt;br/&gt;BWV 86/6: Es ist das Heil uns kommen her &lt;br/&gt;BWV 308: Es spricht der Unweisen Mund wohl &lt;br/&gt;BWV 20/7: O Ewigkeit, du Donnerwort &lt;br/&gt;BWV 245/5: Vater unser im Himmelreich &lt;br/&gt;BWV 110/7: Wir Christenleut‘</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf das Symbol, um das Stück abzuspielen. Wann immer Sie einen Abschluss oder Neubeginn hören, drücken Sie die Leertaste. Es gibt keine richtigen und falschen Antworten. Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
+  </si>
+  <si>
+    <t>Click on the button to play audio. Whenever you hear a conclusion or new beginning, press the space bar. There are no right and wrong answers. Just answer according to your personal, first impression.</t>
+  </si>
+  <si>
+    <t>Trifft gar nicht zu      1</t>
+  </si>
+  <si>
+    <t>Completely disagree      1</t>
   </si>
 </sst>
 </file>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,21 +879,21 @@
         <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -940,15 +940,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,10 +956,10 @@
         <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -967,7 +967,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -1000,21 +1000,21 @@
         <v>52</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1023,13 +1023,13 @@
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1038,13 +1038,13 @@
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1053,13 +1053,13 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1083,13 +1083,13 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -1098,18 +1098,18 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="3">
         <v>2</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B32" s="3">
         <v>4</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B33" s="3">
         <v>5</v>
@@ -1153,101 +1153,101 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea.fink/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25960FA4-FBD7-4C1E-BFF3-6FCF05C94A69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A91AB-4BED-3941-996C-AC6C3880AE7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
+    <workbookView xWindow="8920" yWindow="500" windowWidth="29060" windowHeight="22900" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
   <sheets>
     <sheet name="HLT_dict" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_GoBack" localSheetId="0">HLT_dict!$C$11</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -270,12 +273,6 @@
     <t>6 Completely agree</t>
   </si>
   <si>
-    <t>In the following you will hear  {{stimulus_description}}. Press the space bar when you perceive a section. After listening, we will ask you how difficult you found the task and whether you liked the piece.</t>
-  </si>
-  <si>
-    <t>Im folgenden hören Sie  {{stimulus_description}}, Drücken Sie die Leertaste, wenn Sie einen Abschnitt wahrnehmen. Nach dem Hören fragen wir Sie, wie schwer Ihnen die Aufgabe fiel und ob Ihnen das Stück gefallen hat.</t>
-  </si>
-  <si>
     <t>NUM_LIKERT6</t>
   </si>
   <si>
@@ -291,21 +288,12 @@
     <t>PART2_STIMULUS_DESCRIPTION</t>
   </si>
   <si>
-    <t>ein Musikstück</t>
-  </si>
-  <si>
-    <t>a piece of music</t>
-  </si>
-  <si>
     <t>John Knowles Paine: Symphony No. 1 in C minor, Op. 23: Allegro con brio. From the sound recording New World Records #80374-2.  &lt;br/&gt; &amp;copy;1989 Anthology of Recorded Music, Inc. Used by permission.</t>
   </si>
   <si>
     <t>John Knowles Paine: Symphonie Nr. 1 in c-Moll, Op. 23: Allegro con brio. Aus der Aufnahme New World Records #80374-2. &lt;br/&gt; &amp;copy;1989 Anthology of Recorded Music, Inc. Gebrauch mit freundlicher Genehmigung.</t>
   </si>
   <si>
-    <t>Beginne mit dem Experiment. &lt;br&gt; Viel Vergnügen!</t>
-  </si>
-  <si>
     <t>Begin the experiment. &lt;br&gt; Have fun!</t>
   </si>
   <si>
@@ -315,33 +303,12 @@
     <t>FINISHED</t>
   </si>
   <si>
-    <t>Sie haben die Segmentierungsaufgabe beendet.</t>
-  </si>
-  <si>
     <t>FINISHED_CONT</t>
   </si>
   <si>
-    <t>Sie haben die Segmentierungsaufgabe beendet. &lt;br&gt; Jetzt folgen noch ein paar weitere Fragen.</t>
-  </si>
-  <si>
-    <t>You finished the segmentation task.</t>
-  </si>
-  <si>
-    <t>You finished the segmentation task. &lt;br&gt;  Now on to a few more questions.</t>
-  </si>
-  <si>
-    <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into different sections. When something new begins or something ends, this marks such a section. You alone decide what counts as a section and what does not. You also decide whether the section is rather short or rather long. Try intuitively to divide the music into meaningful parts. There are no right and wrong answers.</t>
-  </si>
-  <si>
-    <t>In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in unterschiedliche Abschnitte gliedern. Wenn etwas Neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Sie entscheiden auch, ob der Abschnitt eher kurz oder eher lang ist. Versuchen Sie intuitiv, die Musik in sinnvolle Teile zu gliedern. Es gibt keine richtigen und falschen Antworten.</t>
-  </si>
-  <si>
     <t>CREDITS_HEADER_PART1</t>
   </si>
   <si>
-    <t>Sie hörten einige der folgende Choräle von Johann Sebastian Bach (original/manipuliert)</t>
-  </si>
-  <si>
     <t>CREDITS_HEADER_PART2</t>
   </si>
   <si>
@@ -354,32 +321,163 @@
     <t>CREDITS_PART1</t>
   </si>
   <si>
-    <t>Urheberechtsrhinweis</t>
-  </si>
-  <si>
     <t>You listened to some of the following chorals by J.S. Bach (original or manipulated).</t>
   </si>
   <si>
     <t>BWV153/1: Ach Gott vom Himmel sieh' darein &lt;br/&gt;BWV 3/6: Ach Gott, wie manches Herzeleid &lt;br/&gt;BWV267: An Wasserflüssen Babylon &lt;br/&gt;BWV 6/6: Erhalt uns Herr, bei deinem Wort &lt;br/&gt;BWV 248: Ermuntre dich, mein schwacher Geist &lt;br/&gt;BWV 86/6: Es ist das Heil uns kommen her &lt;br/&gt;BWV 308: Es spricht der Unweisen Mund wohl &lt;br/&gt;BWV 20/7: O Ewigkeit, du Donnerwort &lt;br/&gt;BWV 245/5: Vater unser im Himmelreich &lt;br/&gt;BWV 110/7: Wir Christenleut‘</t>
   </si>
   <si>
-    <t>Klicken Sie auf das Symbol, um das Stück abzuspielen. Wann immer Sie einen Abschluss oder Neubeginn hören, drücken Sie die Leertaste. Es gibt keine richtigen und falschen Antworten. Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
-  </si>
-  <si>
-    <t>Click on the button to play audio. Whenever you hear a conclusion or new beginning, press the space bar. There are no right and wrong answers. Just answer according to your personal, first impression.</t>
-  </si>
-  <si>
     <t>Trifft gar nicht zu      1</t>
   </si>
   <si>
     <t>Completely disagree      1</t>
+  </si>
+  <si>
+    <t>In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in viele unterschiedliche Abschnitte gliedern: kurze und längere, deutliche und weniger deutliche. Wenn etwas neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Es geht nicht darum, alle Abschnitte zu finden - das wäre während des Hörens gar nicht möglich. Uns interessiert, wie Sie die Musik ganz spontan in sinnvolle Teile gliedern. Entscheiden Sie intuitiv.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Im folgenden hören Sie  {{stimulus_description}}. Drücken Sie </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>eine beliebige Taste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, wenn Sie einen Abschnitt wahrnehmen. Nach dem Hören fragen wir Sie, wie schwer Ihnen die Aufgabe fiel und ob Ihnen das Stück gefallen hat.</t>
+    </r>
+  </si>
+  <si>
+    <t>ein Musikstück (7min)</t>
+  </si>
+  <si>
+    <t>Urheberechtshinweis</t>
+  </si>
+  <si>
+    <t>Sie hörten einige der folgende Choräle von Johann Sebastian Bach (original oder manipuliert)</t>
+  </si>
+  <si>
+    <t>Sie haben die Aufgabe beendet.</t>
+  </si>
+  <si>
+    <t>Sie haben die Aufgabe beendet. &lt;br&gt; Jetzt folgen noch ein paar weitere Fragen.</t>
+  </si>
+  <si>
+    <t>You finished the task.</t>
+  </si>
+  <si>
+    <t>You finished the task. &lt;br&gt;  Now on to a few more questions.</t>
+  </si>
+  <si>
+    <t>Beginnen Sie mit dem Experiment. &lt;br&gt; Viel Vergnügen!</t>
+  </si>
+  <si>
+    <t>a piece of music (7min)</t>
+  </si>
+  <si>
+    <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into many different sections: shorter and longer, clear and less clear. A section is, for example, marked when something new begins or something ends. What counts as a section and what does not, you yourself can decide. The aim is not to identify all sections - this would not be possible while listening. We are interested in how you spontaneously divide the music into meaningful parts. Simply decide intuitively.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the following you will hear  {{stimulus_description}}. Press </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve">any key </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when you perceive a section. After listening, we will ask you how difficult you found the task and whether you liked the piece.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the button to play the audio. Whenever you hear a section concluding or beginning, press </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>any key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Simply answer according to your first impressions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Klicken Sie auf das Symbol, um das Stück abzuspielen.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Wann immer für Sie ein Abschnitt beginnt oder endet, drücken Sie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t xml:space="preserve"> eine beliebige Taste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.  Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +497,23 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Textkörper)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -421,22 +536,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -753,501 +878,501 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="78.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="6">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="6">
+        <v>5</v>
+      </c>
+      <c r="C33" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="B35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="B39" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="3">
-        <v>3</v>
-      </c>
-      <c r="C31" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="3">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="3">
-        <v>5</v>
-      </c>
-      <c r="C33" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="B40" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea.fink/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A91AB-4BED-3941-996C-AC6C3880AE7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFAB1F0-15D4-41D1-8491-7C4DBA93C111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8920" yWindow="500" windowWidth="29060" windowHeight="22900" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
   <sheets>
     <sheet name="HLT_dict" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
   <si>
     <t>de</t>
   </si>
@@ -336,57 +336,61 @@
     <t>In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in viele unterschiedliche Abschnitte gliedern: kurze und längere, deutliche und weniger deutliche. Wenn etwas neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Es geht nicht darum, alle Abschnitte zu finden - das wäre während des Hörens gar nicht möglich. Uns interessiert, wie Sie die Musik ganz spontan in sinnvolle Teile gliedern. Entscheiden Sie intuitiv.</t>
   </si>
   <si>
+    <t>ein Musikstück (7min)</t>
+  </si>
+  <si>
+    <t>Urheberechtshinweis</t>
+  </si>
+  <si>
+    <t>Sie hörten einige der folgende Choräle von Johann Sebastian Bach (original oder manipuliert)</t>
+  </si>
+  <si>
+    <t>Sie haben die Aufgabe beendet.</t>
+  </si>
+  <si>
+    <t>Sie haben die Aufgabe beendet. &lt;br&gt; Jetzt folgen noch ein paar weitere Fragen.</t>
+  </si>
+  <si>
+    <t>You finished the task.</t>
+  </si>
+  <si>
+    <t>You finished the task. &lt;br&gt;  Now on to a few more questions.</t>
+  </si>
+  <si>
+    <t>Beginnen Sie mit dem Experiment. &lt;br&gt; Viel Vergnügen!</t>
+  </si>
+  <si>
+    <t>a piece of music (7min)</t>
+  </si>
+  <si>
+    <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into many different sections: shorter and longer, clear and less clear. A section is, for example, marked when something new begins or something ends. What counts as a section and what does not, you yourself can decide. The aim is not to identify all sections - this would not be possible while listening. We are interested in how you spontaneously divide the music into meaningful parts. Simply decide intuitively.</t>
+  </si>
+  <si>
+    <t>EXAMPLE_HEADER_PLAIN</t>
+  </si>
+  <si>
+    <t>Klicken Sie auf das Symbol, um das Stück abzuspielen. Wann immer für Sie ein Abschnitt beginnt oder endet, drücken Sie eine beliebige Taste.  Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Im folgenden hören Sie  {{stimulus_description}}. Drücken Sie </t>
+      <t xml:space="preserve">Click on the button to play the audio. Whenever you hear a section concluding or beginning, press </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>eine beliebige Taste</t>
+      <t>any key</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, wenn Sie einen Abschnitt wahrnehmen. Nach dem Hören fragen wir Sie, wie schwer Ihnen die Aufgabe fiel und ob Ihnen das Stück gefallen hat.</t>
+      <t>. Simply answer according to your first impressions.</t>
     </r>
-  </si>
-  <si>
-    <t>ein Musikstück (7min)</t>
-  </si>
-  <si>
-    <t>Urheberechtshinweis</t>
-  </si>
-  <si>
-    <t>Sie hörten einige der folgende Choräle von Johann Sebastian Bach (original oder manipuliert)</t>
-  </si>
-  <si>
-    <t>Sie haben die Aufgabe beendet.</t>
-  </si>
-  <si>
-    <t>Sie haben die Aufgabe beendet. &lt;br&gt; Jetzt folgen noch ein paar weitere Fragen.</t>
-  </si>
-  <si>
-    <t>You finished the task.</t>
-  </si>
-  <si>
-    <t>You finished the task. &lt;br&gt;  Now on to a few more questions.</t>
-  </si>
-  <si>
-    <t>Beginnen Sie mit dem Experiment. &lt;br&gt; Viel Vergnügen!</t>
-  </si>
-  <si>
-    <t>a piece of music (7min)</t>
-  </si>
-  <si>
-    <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into many different sections: shorter and longer, clear and less clear. A section is, for example, marked when something new begins or something ends. What counts as a section and what does not, you yourself can decide. The aim is not to identify all sections - this would not be possible while listening. We are interested in how you spontaneously divide the music into meaningful parts. Simply decide intuitively.</t>
   </si>
   <si>
     <r>
@@ -396,7 +400,9 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">any key </t>
     </r>
@@ -412,72 +418,20 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Click on the button to play the audio. Whenever you hear a section concluding or beginning, press </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>any key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Simply answer according to your first impressions.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t>Klicken Sie auf das Symbol, um das Stück abzuspielen.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Wann immer für Sie ein Abschnitt beginnt oder endet, drücken Sie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Textkörper)"/>
-      </rPr>
-      <t xml:space="preserve"> eine beliebige Taste</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.  Antworten Sie einfach nach Ihrem persönlichen, ersten Eindruck.</t>
-    </r>
+    <t>Im folgenden hören Sie  {{stimulus_description}}. Drücken Sie eine beliebige Taste, wenn Sie einen Abschnitt wahrnehmen. Nach dem Hören fragen wir Sie, wie schwer Ihnen die Aufgabe fiel und ob Ihnen das Stück gefallen hat.</t>
+  </si>
+  <si>
+    <t>Ein Beispiel</t>
+  </si>
+  <si>
+    <t>An Example</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,19 +454,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Textkörper)"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri (Textkörper)"/>
     </font>
   </fonts>
@@ -536,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -562,6 +516,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -876,20 +833,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="78.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -900,7 +857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -911,7 +868,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -922,7 +879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -933,7 +890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -944,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -955,7 +912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -966,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -977,7 +934,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -988,7 +945,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -999,7 +956,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="120">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1007,21 +964,21 @@
         <v>101</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45">
       <c r="A12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1032,346 +989,357 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="18" spans="1:7" ht="45">
+      <c r="A18" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="4" t="s">
+      <c r="B18" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:7" ht="15.75">
+      <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75">
       <c r="A25" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75">
       <c r="A26" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75">
       <c r="A27" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75">
       <c r="A28" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75">
       <c r="A29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75">
+      <c r="A30" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+    <row r="31" spans="1:7" ht="15.75">
+      <c r="A31" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B31" s="6">
         <v>2</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:7" ht="15.75">
+      <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B32" s="6">
         <v>3</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
+    <row r="33" spans="1:3" ht="15.75">
+      <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B33" s="6">
         <v>4</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C33" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="34" spans="1:3" ht="15.75">
+      <c r="A34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B34" s="6">
         <v>5</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C34" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:3" ht="15.75">
+      <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:3" ht="15.75">
+      <c r="A43" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B43" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>86</v>
       </c>
     </row>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFAB1F0-15D4-41D1-8491-7C4DBA93C111}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFFAF81-D7DE-4826-A7A8-965CD6A14E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
   <sheets>
     <sheet name="HLT_dict" sheetId="1" r:id="rId1"/>
@@ -279,12 +279,6 @@
     <t>PART1_STIMULUS_DESCRIPTION</t>
   </si>
   <si>
-    <t>einige kurze Klavierstücke</t>
-  </si>
-  <si>
-    <t>some short piano pieces</t>
-  </si>
-  <si>
     <t>PART2_STIMULUS_DESCRIPTION</t>
   </si>
   <si>
@@ -294,9 +288,6 @@
     <t>John Knowles Paine: Symphonie Nr. 1 in c-Moll, Op. 23: Allegro con brio. Aus der Aufnahme New World Records #80374-2. &lt;br/&gt; &amp;copy;1989 Anthology of Recorded Music, Inc. Gebrauch mit freundlicher Genehmigung.</t>
   </si>
   <si>
-    <t>Begin the experiment. &lt;br&gt; Have fun!</t>
-  </si>
-  <si>
     <t>6 Trifft sehr zu</t>
   </si>
   <si>
@@ -355,9 +346,6 @@
   </si>
   <si>
     <t>You finished the task. &lt;br&gt;  Now on to a few more questions.</t>
-  </si>
-  <si>
-    <t>Beginnen Sie mit dem Experiment. &lt;br&gt; Viel Vergnügen!</t>
   </si>
   <si>
     <t>a piece of music (7min)</t>
@@ -425,6 +413,18 @@
   </si>
   <si>
     <t>An Example</t>
+  </si>
+  <si>
+    <t>Jetzt beginnt das Experiment. &lt;br&gt; Viel Vergnügen!</t>
+  </si>
+  <si>
+    <t>Now the experiment starts. &lt;br&gt; Have fun!</t>
+  </si>
+  <si>
+    <t>{{num_items}} kurze Klavierstücke</t>
+  </si>
+  <si>
+    <t>{{num_items}} piano pieces</t>
   </si>
 </sst>
 </file>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -961,10 +961,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
@@ -972,10 +972,10 @@
         <v>53</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -991,13 +991,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1038,10 +1038,10 @@
         <v>45</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1093,10 +1093,10 @@
         <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75">
@@ -1194,10 +1194,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75">
@@ -1249,7 +1249,7 @@
         <v>81</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
@@ -1260,87 +1260,87 @@
         <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFFAF81-D7DE-4826-A7A8-965CD6A14E03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCA4F6-9644-4287-8103-B559C8C3E019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>de</t>
   </si>
@@ -279,9 +279,6 @@
     <t>PART1_STIMULUS_DESCRIPTION</t>
   </si>
   <si>
-    <t>PART2_STIMULUS_DESCRIPTION</t>
-  </si>
-  <si>
     <t>John Knowles Paine: Symphony No. 1 in C minor, Op. 23: Allegro con brio. From the sound recording New World Records #80374-2.  &lt;br/&gt; &amp;copy;1989 Anthology of Recorded Music, Inc. Used by permission.</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Copyright Notice</t>
   </si>
   <si>
-    <t>CREDITS_PART2</t>
-  </si>
-  <si>
     <t>CREDITS_PART1</t>
   </si>
   <si>
@@ -327,12 +321,6 @@
     <t>In dieser Studie untersuchen wir, wie Hörerinnen und Hörer Abschnitte in der Musik wahrnehmen. Musik lässt sich in viele unterschiedliche Abschnitte gliedern: kurze und längere, deutliche und weniger deutliche. Wenn etwas neues beginnt oder etwas endet, markiert dies einen solchen Abschnitt. Was für Sie als Abschnitt zählt und was nicht, entscheiden allein Sie. Es geht nicht darum, alle Abschnitte zu finden - das wäre während des Hörens gar nicht möglich. Uns interessiert, wie Sie die Musik ganz spontan in sinnvolle Teile gliedern. Entscheiden Sie intuitiv.</t>
   </si>
   <si>
-    <t>ein Musikstück (7min)</t>
-  </si>
-  <si>
-    <t>Urheberechtshinweis</t>
-  </si>
-  <si>
     <t>Sie hörten einige der folgende Choräle von Johann Sebastian Bach (original oder manipuliert)</t>
   </si>
   <si>
@@ -346,9 +334,6 @@
   </si>
   <si>
     <t>You finished the task. &lt;br&gt;  Now on to a few more questions.</t>
-  </si>
-  <si>
-    <t>a piece of music (7min)</t>
   </si>
   <si>
     <t>In this study, we investigate how listeners perceive sections in music. Music can be divided into many different sections: shorter and longer, clear and less clear. A section is, for example, marked when something new begins or something ends. What counts as a section and what does not, you yourself can decide. The aim is not to identify all sections - this would not be possible while listening. We are interested in how you spontaneously divide the music into meaningful parts. Simply decide intuitively.</t>
@@ -425,6 +410,39 @@
   </si>
   <si>
     <t>{{num_items}} piano pieces</t>
+  </si>
+  <si>
+    <t>Jeanne-Louise Farrenc: Nonett in E-flat major, Op. 38: IV. Adagio-Allegro. Consortium Classicum with Dieter Klöcker, Klarinette. &lt;br/&gt; Aus der Aufnahme DIVOX CDX-29205. &amp;copy; 1993/2010 Divox. Gebrauch mit freundlicher Genehmingung.</t>
+  </si>
+  <si>
+    <t>Jeanne-Louise Farrenc: Nonett in E-flat major, Op. 38: IV. Adagio-Allegro. Consortium Classicum with Dieter Klöcker, clarinet. &lt;br/&gt; From the sound recording DIVOX CDX-29205. &amp;copy; 1993/2010 Divox. Used by permission.</t>
+  </si>
+  <si>
+    <t>Urheberrechtshinweis</t>
+  </si>
+  <si>
+    <t>CREDITS_PART2-01</t>
+  </si>
+  <si>
+    <t>CREDITS_PART2-02</t>
+  </si>
+  <si>
+    <t>PART2_STIMULUS_DESCRIPTION-01</t>
+  </si>
+  <si>
+    <t>ein Musikstück (5:30 min)</t>
+  </si>
+  <si>
+    <t>a piece of music (5:30 min)</t>
+  </si>
+  <si>
+    <t>PART2_STIMULUS_DESCRIPTION-02</t>
+  </si>
+  <si>
+    <t>ein Musikstück (7:00 min)</t>
+  </si>
+  <si>
+    <t>a piece of music (7:00 min)</t>
   </si>
 </sst>
 </file>
@@ -833,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BC7805-D1BA-4C3B-8218-2DF65AF09233}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -961,10 +979,10 @@
         <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45">
@@ -972,10 +990,10 @@
         <v>53</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -991,13 +1009,13 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>113</v>
-      </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1038,10 +1056,10 @@
         <v>45</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1093,10 +1111,10 @@
         <v>52</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75">
@@ -1194,10 +1212,10 @@
         <v>75</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75">
@@ -1249,7 +1267,7 @@
         <v>81</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>80</v>
@@ -1260,87 +1278,109 @@
         <v>82</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75">
-      <c r="A43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75">
+      <c r="A45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>84</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/MSM_dict.xlsx
+++ b/data_raw/MSM_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\LongGold\development\tests\MSM\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CCA4F6-9644-4287-8103-B559C8C3E019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D59DD61-C924-4CD2-8206-B2EEEEC16697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CDF385B-FF42-4ECC-9678-5E042E73A117}"/>
   </bookViews>
@@ -412,12 +412,6 @@
     <t>{{num_items}} piano pieces</t>
   </si>
   <si>
-    <t>Jeanne-Louise Farrenc: Nonett in E-flat major, Op. 38: IV. Adagio-Allegro. Consortium Classicum with Dieter Klöcker, Klarinette. &lt;br/&gt; Aus der Aufnahme DIVOX CDX-29205. &amp;copy; 1993/2010 Divox. Gebrauch mit freundlicher Genehmingung.</t>
-  </si>
-  <si>
-    <t>Jeanne-Louise Farrenc: Nonett in E-flat major, Op. 38: IV. Adagio-Allegro. Consortium Classicum with Dieter Klöcker, clarinet. &lt;br/&gt; From the sound recording DIVOX CDX-29205. &amp;copy; 1993/2010 Divox. Used by permission.</t>
-  </si>
-  <si>
     <t>Urheberrechtshinweis</t>
   </si>
   <si>
@@ -443,6 +437,12 @@
   </si>
   <si>
     <t>a piece of music (7:00 min)</t>
+  </si>
+  <si>
+    <t>Jeanne-Louise Farrenc: Nonett in E-flat major, Op. 38: IV. Adagio-Allegro. &lt;br/&gt; Consortium Classicum with Dieter Klöcker, Klarinette. &lt;br/&gt; Aus der Aufnahme DIVOX CDX-29205. &amp;copy; 1993/2010 Divox. Gebrauch mit freundlicher Genehmingung.</t>
+  </si>
+  <si>
+    <t>Jeanne-Louise Farrenc: Nonett in E-flat major, Op. 38: IV. Adagio-Allegro. &lt;br/&gt;Consortium Classicum with Dieter Klöcker, clarinet. &lt;br/&gt; From the sound recording DIVOX CDX-29205. &amp;copy; 1993/2010 Divox. Used by permission.</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1286,24 +1286,24 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1344,7 +1344,7 @@
         <v>89</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>90</v>
@@ -1363,18 +1363,18 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75">
       <c r="A45" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>84</v>
